--- a/zssapp/WebContent/WEB-INF/books/mortgage_refinancing.xlsx
+++ b/zssapp/WebContent/WEB-INF/books/mortgage_refinancing.xlsx
@@ -464,6 +464,24 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -474,24 +492,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,7 +815,7 @@
   <dimension ref="B1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,11 +826,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="2:4" ht="12.75" customHeight="1">
       <c r="B2" s="2"/>
@@ -838,158 +838,158 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:4" ht="18" customHeight="1">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="2:4" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="22">
         <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="2:4" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="23">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" customHeight="1">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="24">
         <v>180000</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="25">
         <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18" customHeight="1">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="26">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18" customHeight="1">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="24">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18" customHeight="1">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="27">
         <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18" customHeight="1">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18" customHeight="1">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18" customHeight="1">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="2:4" ht="18" customHeight="1">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="20">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="18" customHeight="1">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="21">
         <v>2000</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18" customHeight="1">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="21">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18" customHeight="1">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18" customHeight="1">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="8">
         <f>IFERROR(IF(SUM(D23),ROUND(D13/100*D23,0),""),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18" customHeight="1">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="19">
         <f>IFERROR(IF(SUM(D15:D19),SUM(D15:D19),""),"")</f>
         <v>2500</v>
@@ -1151,18 +1151,7 @@
       <c r="D34" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -1172,6 +1161,16 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
